--- a/spec/support/blankRoSpreadsheet.xlsx
+++ b/spec/support/blankRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyshields/git-repos/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638E8D1-49BB-1244-9F04-0B6D2DF3FF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7910C-2A3B-3A48-9CD5-C3871951385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="1160" windowWidth="23040" windowHeight="19160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="131">
   <si>
     <t>Example</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>8:30</t>
+  </si>
+  <si>
+    <t>White River Junction, VT</t>
+  </si>
+  <si>
+    <t>RO05</t>
   </si>
 </sst>
 </file>
@@ -1244,40 +1250,10 @@
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,6 +1279,36 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2493,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT50"/>
+  <dimension ref="A1:IU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2:BF4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2506,31 +2512,32 @@
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="57" width="11" style="1" customWidth="1"/>
-    <col min="58" max="58" width="11" style="46" customWidth="1"/>
-    <col min="59" max="254" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="46" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="58" width="11" style="1" customWidth="1"/>
+    <col min="59" max="59" width="11" style="46" customWidth="1"/>
+    <col min="60" max="255" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="4"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -2573,10 +2580,11 @@
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
-      <c r="BE1" s="5"/>
+      <c r="BE1" s="4"/>
       <c r="BF1" s="5"/>
-    </row>
-    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG1" s="5"/>
+    </row>
+    <row r="2" spans="1:59" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2593,166 +2601,169 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="68" t="s">
+      <c r="BG2" s="68" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2769,166 +2780,169 @@
         <v>63</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AR3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="69" t="s">
+      <c r="BG3" s="69" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2980,13 +2994,13 @@
       <c r="Q4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="16" t="s">
         <v>117</v>
       </c>
       <c r="U4" s="17" t="s">
@@ -3031,13 +3045,13 @@
       <c r="AH4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AI4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="AJ4" s="16" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AK4" s="16" t="s">
         <v>117</v>
       </c>
       <c r="AL4" s="17" t="s">
@@ -3082,13 +3096,13 @@
       <c r="AY4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="AZ4" s="18" t="s">
+      <c r="AZ4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="BA4" s="16" t="s">
+      <c r="BA4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="BB4" s="17" t="s">
+      <c r="BB4" s="16" t="s">
         <v>117</v>
       </c>
       <c r="BC4" s="17" t="s">
@@ -3100,11 +3114,14 @@
       <c r="BE4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="BF4" s="70" t="s">
+      <c r="BF4" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
@@ -3163,10 +3180,11 @@
       <c r="BB5" s="61"/>
       <c r="BC5" s="61"/>
       <c r="BD5" s="61"/>
-      <c r="BE5" s="62"/>
+      <c r="BE5" s="61"/>
       <c r="BF5" s="62"/>
-    </row>
-    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG5" s="62"/>
+    </row>
+    <row r="6" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="22">
         <v>43540</v>
@@ -3227,8 +3245,9 @@
       <c r="BD6" s="65"/>
       <c r="BE6" s="65"/>
       <c r="BF6" s="65"/>
-    </row>
-    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG6" s="65"/>
+    </row>
+    <row r="7" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="23">
         <v>43576</v>
@@ -3287,10 +3306,11 @@
       <c r="BB7" s="61"/>
       <c r="BC7" s="61"/>
       <c r="BD7" s="61"/>
-      <c r="BE7" s="62"/>
+      <c r="BE7" s="61"/>
       <c r="BF7" s="62"/>
-    </row>
-    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG7" s="62"/>
+    </row>
+    <row r="8" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="25">
         <v>43604</v>
@@ -3351,8 +3371,9 @@
       <c r="BD8" s="65"/>
       <c r="BE8" s="65"/>
       <c r="BF8" s="65"/>
-    </row>
-    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG8" s="65"/>
+    </row>
+    <row r="9" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="26"/>
       <c r="C9" s="61"/>
@@ -3409,10 +3430,11 @@
       <c r="BB9" s="61"/>
       <c r="BC9" s="61"/>
       <c r="BD9" s="61"/>
-      <c r="BE9" s="62"/>
+      <c r="BE9" s="61"/>
       <c r="BF9" s="62"/>
-    </row>
-    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG9" s="62"/>
+    </row>
+    <row r="10" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="28"/>
       <c r="C10" s="65"/>
@@ -3471,8 +3493,9 @@
       <c r="BD10" s="65"/>
       <c r="BE10" s="65"/>
       <c r="BF10" s="65"/>
-    </row>
-    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG10" s="65"/>
+    </row>
+    <row r="11" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="30"/>
       <c r="C11" s="27"/>
@@ -3529,10 +3552,11 @@
       <c r="BB11" s="27"/>
       <c r="BC11" s="27"/>
       <c r="BD11" s="27"/>
-      <c r="BE11" s="31"/>
+      <c r="BE11" s="27"/>
       <c r="BF11" s="31"/>
-    </row>
-    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG11" s="31"/>
+    </row>
+    <row r="12" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -3591,8 +3615,9 @@
       <c r="BD12" s="29"/>
       <c r="BE12" s="29"/>
       <c r="BF12" s="29"/>
-    </row>
-    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG12" s="29"/>
+    </row>
+    <row r="13" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="30"/>
       <c r="C13" s="32"/>
@@ -3649,10 +3674,11 @@
       <c r="BB13" s="32"/>
       <c r="BC13" s="32"/>
       <c r="BD13" s="32"/>
-      <c r="BE13" s="33"/>
+      <c r="BE13" s="32"/>
       <c r="BF13" s="33"/>
-    </row>
-    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG13" s="33"/>
+    </row>
+    <row r="14" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="28"/>
       <c r="C14" s="34"/>
@@ -3711,8 +3737,9 @@
       <c r="BD14" s="34"/>
       <c r="BE14" s="34"/>
       <c r="BF14" s="34"/>
-    </row>
-    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG14" s="34"/>
+    </row>
+    <row r="15" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="30"/>
       <c r="C15" s="32"/>
@@ -3769,10 +3796,11 @@
       <c r="BB15" s="32"/>
       <c r="BC15" s="32"/>
       <c r="BD15" s="32"/>
-      <c r="BE15" s="33"/>
+      <c r="BE15" s="32"/>
       <c r="BF15" s="33"/>
-    </row>
-    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG15" s="33"/>
+    </row>
+    <row r="16" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="28"/>
       <c r="C16" s="34"/>
@@ -3831,8 +3859,9 @@
       <c r="BD16" s="34"/>
       <c r="BE16" s="34"/>
       <c r="BF16" s="34"/>
-    </row>
-    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG16" s="34"/>
+    </row>
+    <row r="17" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="30"/>
       <c r="C17" s="32"/>
@@ -3889,10 +3918,11 @@
       <c r="BB17" s="32"/>
       <c r="BC17" s="32"/>
       <c r="BD17" s="32"/>
-      <c r="BE17" s="33"/>
+      <c r="BE17" s="32"/>
       <c r="BF17" s="33"/>
-    </row>
-    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG17" s="33"/>
+    </row>
+    <row r="18" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="28"/>
       <c r="C18" s="34"/>
@@ -3951,8 +3981,9 @@
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
       <c r="BF18" s="34"/>
-    </row>
-    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG18" s="34"/>
+    </row>
+    <row r="19" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="30"/>
       <c r="C19" s="32"/>
@@ -4009,10 +4040,11 @@
       <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="32"/>
-      <c r="BE19" s="33"/>
+      <c r="BE19" s="32"/>
       <c r="BF19" s="33"/>
-    </row>
-    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG19" s="33"/>
+    </row>
+    <row r="20" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="28"/>
       <c r="C20" s="34"/>
@@ -4071,8 +4103,9 @@
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
       <c r="BF20" s="34"/>
-    </row>
-    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG20" s="34"/>
+    </row>
+    <row r="21" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="30"/>
       <c r="C21" s="32"/>
@@ -4129,10 +4162,11 @@
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="32"/>
-      <c r="BE21" s="33"/>
+      <c r="BE21" s="32"/>
       <c r="BF21" s="33"/>
-    </row>
-    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG21" s="33"/>
+    </row>
+    <row r="22" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="28"/>
       <c r="C22" s="34"/>
@@ -4191,8 +4225,9 @@
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
       <c r="BF22" s="34"/>
-    </row>
-    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG22" s="34"/>
+    </row>
+    <row r="23" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="30"/>
       <c r="C23" s="32"/>
@@ -4249,10 +4284,11 @@
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="32"/>
-      <c r="BE23" s="33"/>
+      <c r="BE23" s="32"/>
       <c r="BF23" s="33"/>
-    </row>
-    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG23" s="33"/>
+    </row>
+    <row r="24" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="28"/>
       <c r="C24" s="34"/>
@@ -4311,8 +4347,9 @@
       <c r="BD24" s="34"/>
       <c r="BE24" s="34"/>
       <c r="BF24" s="34"/>
-    </row>
-    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG24" s="34"/>
+    </row>
+    <row r="25" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="30"/>
       <c r="C25" s="32"/>
@@ -4369,10 +4406,11 @@
       <c r="BB25" s="32"/>
       <c r="BC25" s="32"/>
       <c r="BD25" s="32"/>
-      <c r="BE25" s="33"/>
+      <c r="BE25" s="32"/>
       <c r="BF25" s="33"/>
-    </row>
-    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG25" s="33"/>
+    </row>
+    <row r="26" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="28"/>
       <c r="C26" s="34"/>
@@ -4431,8 +4469,9 @@
       <c r="BD26" s="34"/>
       <c r="BE26" s="34"/>
       <c r="BF26" s="34"/>
-    </row>
-    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG26" s="34"/>
+    </row>
+    <row r="27" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="30"/>
       <c r="C27" s="32"/>
@@ -4489,10 +4528,11 @@
       <c r="BB27" s="32"/>
       <c r="BC27" s="32"/>
       <c r="BD27" s="32"/>
-      <c r="BE27" s="33"/>
+      <c r="BE27" s="32"/>
       <c r="BF27" s="33"/>
-    </row>
-    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG27" s="33"/>
+    </row>
+    <row r="28" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="28"/>
       <c r="C28" s="34"/>
@@ -4551,8 +4591,9 @@
       <c r="BD28" s="34"/>
       <c r="BE28" s="34"/>
       <c r="BF28" s="34"/>
-    </row>
-    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG28" s="34"/>
+    </row>
+    <row r="29" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="30"/>
       <c r="C29" s="32"/>
@@ -4609,10 +4650,11 @@
       <c r="BB29" s="32"/>
       <c r="BC29" s="32"/>
       <c r="BD29" s="32"/>
-      <c r="BE29" s="33"/>
+      <c r="BE29" s="32"/>
       <c r="BF29" s="33"/>
-    </row>
-    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG29" s="33"/>
+    </row>
+    <row r="30" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="28"/>
       <c r="C30" s="34"/>
@@ -4671,8 +4713,9 @@
       <c r="BD30" s="34"/>
       <c r="BE30" s="34"/>
       <c r="BF30" s="34"/>
-    </row>
-    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG30" s="34"/>
+    </row>
+    <row r="31" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="30"/>
       <c r="C31" s="32"/>
@@ -4729,10 +4772,11 @@
       <c r="BB31" s="32"/>
       <c r="BC31" s="32"/>
       <c r="BD31" s="32"/>
-      <c r="BE31" s="33"/>
+      <c r="BE31" s="32"/>
       <c r="BF31" s="33"/>
-    </row>
-    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG31" s="33"/>
+    </row>
+    <row r="32" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="28"/>
       <c r="C32" s="34"/>
@@ -4791,8 +4835,9 @@
       <c r="BD32" s="34"/>
       <c r="BE32" s="34"/>
       <c r="BF32" s="34"/>
-    </row>
-    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG32" s="34"/>
+    </row>
+    <row r="33" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="30"/>
       <c r="C33" s="32"/>
@@ -4849,10 +4894,11 @@
       <c r="BB33" s="32"/>
       <c r="BC33" s="32"/>
       <c r="BD33" s="32"/>
-      <c r="BE33" s="33"/>
+      <c r="BE33" s="32"/>
       <c r="BF33" s="33"/>
-    </row>
-    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG33" s="33"/>
+    </row>
+    <row r="34" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="28"/>
       <c r="C34" s="34"/>
@@ -4911,8 +4957,9 @@
       <c r="BD34" s="34"/>
       <c r="BE34" s="34"/>
       <c r="BF34" s="34"/>
-    </row>
-    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG34" s="34"/>
+    </row>
+    <row r="35" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="30"/>
       <c r="C35" s="32"/>
@@ -4969,10 +5016,11 @@
       <c r="BB35" s="32"/>
       <c r="BC35" s="32"/>
       <c r="BD35" s="32"/>
-      <c r="BE35" s="33"/>
+      <c r="BE35" s="32"/>
       <c r="BF35" s="33"/>
-    </row>
-    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG35" s="33"/>
+    </row>
+    <row r="36" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="28"/>
       <c r="C36" s="34"/>
@@ -5031,8 +5079,9 @@
       <c r="BD36" s="34"/>
       <c r="BE36" s="34"/>
       <c r="BF36" s="34"/>
-    </row>
-    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG36" s="34"/>
+    </row>
+    <row r="37" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="30"/>
       <c r="C37" s="32"/>
@@ -5089,10 +5138,11 @@
       <c r="BB37" s="32"/>
       <c r="BC37" s="32"/>
       <c r="BD37" s="32"/>
-      <c r="BE37" s="33"/>
+      <c r="BE37" s="32"/>
       <c r="BF37" s="33"/>
-    </row>
-    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG37" s="33"/>
+    </row>
+    <row r="38" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="28"/>
       <c r="C38" s="34"/>
@@ -5151,8 +5201,9 @@
       <c r="BD38" s="34"/>
       <c r="BE38" s="34"/>
       <c r="BF38" s="34"/>
-    </row>
-    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG38" s="34"/>
+    </row>
+    <row r="39" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="30"/>
       <c r="C39" s="32"/>
@@ -5209,10 +5260,11 @@
       <c r="BB39" s="32"/>
       <c r="BC39" s="32"/>
       <c r="BD39" s="32"/>
-      <c r="BE39" s="33"/>
+      <c r="BE39" s="32"/>
       <c r="BF39" s="33"/>
-    </row>
-    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG39" s="33"/>
+    </row>
+    <row r="40" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="28"/>
       <c r="C40" s="34"/>
@@ -5271,8 +5323,9 @@
       <c r="BD40" s="34"/>
       <c r="BE40" s="34"/>
       <c r="BF40" s="34"/>
-    </row>
-    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG40" s="34"/>
+    </row>
+    <row r="41" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="30"/>
       <c r="C41" s="32"/>
@@ -5329,10 +5382,11 @@
       <c r="BB41" s="32"/>
       <c r="BC41" s="32"/>
       <c r="BD41" s="32"/>
-      <c r="BE41" s="33"/>
+      <c r="BE41" s="32"/>
       <c r="BF41" s="33"/>
-    </row>
-    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG41" s="33"/>
+    </row>
+    <row r="42" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="28"/>
       <c r="C42" s="34"/>
@@ -5391,8 +5445,9 @@
       <c r="BD42" s="34"/>
       <c r="BE42" s="34"/>
       <c r="BF42" s="34"/>
-    </row>
-    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG42" s="34"/>
+    </row>
+    <row r="43" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="30"/>
       <c r="C43" s="32"/>
@@ -5449,10 +5504,11 @@
       <c r="BB43" s="32"/>
       <c r="BC43" s="32"/>
       <c r="BD43" s="32"/>
-      <c r="BE43" s="33"/>
+      <c r="BE43" s="32"/>
       <c r="BF43" s="33"/>
-    </row>
-    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG43" s="33"/>
+    </row>
+    <row r="44" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="28"/>
       <c r="C44" s="34"/>
@@ -5511,8 +5567,9 @@
       <c r="BD44" s="34"/>
       <c r="BE44" s="34"/>
       <c r="BF44" s="34"/>
-    </row>
-    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG44" s="34"/>
+    </row>
+    <row r="45" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="30"/>
       <c r="C45" s="32"/>
@@ -5569,10 +5626,11 @@
       <c r="BB45" s="32"/>
       <c r="BC45" s="32"/>
       <c r="BD45" s="32"/>
-      <c r="BE45" s="33"/>
+      <c r="BE45" s="32"/>
       <c r="BF45" s="33"/>
-    </row>
-    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG45" s="33"/>
+    </row>
+    <row r="46" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="28"/>
       <c r="C46" s="34"/>
@@ -5631,8 +5689,9 @@
       <c r="BD46" s="34"/>
       <c r="BE46" s="34"/>
       <c r="BF46" s="34"/>
-    </row>
-    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG46" s="34"/>
+    </row>
+    <row r="47" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="30"/>
       <c r="C47" s="32"/>
@@ -5689,10 +5748,11 @@
       <c r="BB47" s="32"/>
       <c r="BC47" s="32"/>
       <c r="BD47" s="32"/>
-      <c r="BE47" s="33"/>
+      <c r="BE47" s="32"/>
       <c r="BF47" s="33"/>
-    </row>
-    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG47" s="33"/>
+    </row>
+    <row r="48" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="28"/>
       <c r="C48" s="34"/>
@@ -5751,8 +5811,9 @@
       <c r="BD48" s="34"/>
       <c r="BE48" s="34"/>
       <c r="BF48" s="34"/>
-    </row>
-    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG48" s="34"/>
+    </row>
+    <row r="49" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="30"/>
       <c r="C49" s="32"/>
@@ -5809,10 +5870,11 @@
       <c r="BB49" s="32"/>
       <c r="BC49" s="32"/>
       <c r="BD49" s="32"/>
-      <c r="BE49" s="33"/>
+      <c r="BE49" s="32"/>
       <c r="BF49" s="33"/>
-    </row>
-    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG49" s="33"/>
+    </row>
+    <row r="50" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35"/>
       <c r="B50" s="36"/>
       <c r="C50" s="37"/>
@@ -5871,10 +5933,11 @@
       <c r="BD50" s="37"/>
       <c r="BE50" s="37"/>
       <c r="BF50" s="37"/>
+      <c r="BG50" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5901,10 +5964,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -5994,10 +6057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV98"/>
+  <dimension ref="A1:IV99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6011,16 +6074,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
@@ -6029,16 +6092,16 @@
       <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
@@ -6047,26 +6110,26 @@
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="77" t="s">
         <v>127</v>
       </c>
       <c r="I3" s="40"/>
@@ -6077,28 +6140,28 @@
       <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="82">
         <v>10</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="83">
         <v>50</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="83">
         <v>8</v>
       </c>
-      <c r="G4" s="93">
+      <c r="G4" s="83">
         <v>60</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="84" t="s">
         <v>128</v>
       </c>
       <c r="I4" s="40"/>
@@ -6201,10 +6264,10 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
       <c r="B8" s="49" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="D8" s="51">
         <v>0</v>
@@ -6231,10 +6294,10 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="51">
         <v>0</v>
@@ -6261,10 +6324,10 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54"/>
       <c r="B10" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="51">
         <v>0</v>
@@ -6291,10 +6354,10 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54"/>
       <c r="B11" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="51">
         <v>0</v>
@@ -6321,10 +6384,10 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
       <c r="B12" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="51">
         <v>0</v>
@@ -6351,10 +6414,10 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="51">
         <v>0</v>
@@ -6381,10 +6444,10 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="51">
         <v>0</v>
@@ -6411,10 +6474,10 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="51">
         <v>0</v>
@@ -6441,10 +6504,10 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="51">
         <v>0</v>
@@ -6471,10 +6534,10 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="51">
         <v>0</v>
@@ -6501,10 +6564,10 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="51">
         <v>0</v>
@@ -6531,10 +6594,10 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="51">
         <v>0</v>
@@ -6561,10 +6624,10 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="51">
         <v>0</v>
@@ -6591,10 +6654,10 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="51">
         <v>0</v>
@@ -6621,10 +6684,10 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="51">
         <v>0</v>
@@ -6651,10 +6714,10 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="51">
         <v>0</v>
@@ -6681,10 +6744,10 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="51">
         <v>0</v>
@@ -6711,10 +6774,10 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="51">
         <v>0</v>
@@ -6741,10 +6804,10 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="51">
         <v>0</v>
@@ -6771,10 +6834,10 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="51">
         <v>0</v>
@@ -6801,10 +6864,10 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="B28" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="51">
         <v>0</v>
@@ -6831,10 +6894,10 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="51">
         <v>0</v>
@@ -6861,10 +6924,10 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="51">
         <v>0</v>
@@ -6891,10 +6954,10 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="51">
         <v>0</v>
@@ -6921,10 +6984,10 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
       <c r="B32" s="49" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="51">
         <v>0</v>
@@ -6951,10 +7014,10 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
       <c r="B33" s="49" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="51">
         <v>0</v>
@@ -6981,10 +7044,10 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
       <c r="B34" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="51">
         <v>0</v>
@@ -7011,10 +7074,10 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
       <c r="B35" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="51">
         <v>0</v>
@@ -7041,10 +7104,10 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
       <c r="B36" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="51">
         <v>0</v>
@@ -7071,10 +7134,10 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
       <c r="B37" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="51">
         <v>0</v>
@@ -7101,10 +7164,10 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
       <c r="B38" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="51">
         <v>0</v>
@@ -7131,10 +7194,10 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
       <c r="B39" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="51">
         <v>0</v>
@@ -7161,10 +7224,10 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54"/>
       <c r="B40" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="51">
         <v>0</v>
@@ -7191,10 +7254,10 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54"/>
       <c r="B41" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="51">
         <v>0</v>
@@ -7221,10 +7284,10 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
       <c r="B42" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="51">
         <v>0</v>
@@ -7251,10 +7314,10 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
       <c r="B43" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="51">
         <v>0</v>
@@ -7281,10 +7344,10 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
       <c r="B44" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="51">
         <v>0</v>
@@ -7311,10 +7374,10 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54"/>
       <c r="B45" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="51">
         <v>0</v>
@@ -7341,10 +7404,10 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
       <c r="B46" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="51">
         <v>0</v>
@@ -7371,10 +7434,10 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54"/>
       <c r="B47" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="51">
         <v>0</v>
@@ -7401,10 +7464,10 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54"/>
       <c r="B48" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="51">
         <v>0</v>
@@ -7431,10 +7494,10 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
       <c r="B49" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="51">
         <v>0</v>
@@ -7461,10 +7524,10 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54"/>
       <c r="B50" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="51">
         <v>0</v>
@@ -7491,10 +7554,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54"/>
       <c r="B51" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="51">
         <v>0</v>
@@ -7521,10 +7584,10 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54"/>
       <c r="B52" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="51">
         <v>0</v>
@@ -7551,10 +7614,10 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54"/>
       <c r="B53" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="51">
         <v>0</v>
@@ -7581,10 +7644,10 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54"/>
       <c r="B54" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="51">
         <v>0</v>
@@ -7611,10 +7674,10 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54"/>
       <c r="B55" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="51">
         <v>0</v>
@@ -7641,10 +7704,10 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54"/>
       <c r="B56" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="51">
         <v>0</v>
@@ -7671,10 +7734,10 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54"/>
       <c r="B57" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="51">
         <v>0</v>
@@ -7701,10 +7764,10 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54"/>
       <c r="B58" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="51">
         <v>0</v>
@@ -7731,10 +7794,10 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54"/>
       <c r="B59" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="51">
         <v>0</v>
@@ -7760,16 +7823,16 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54"/>
-      <c r="B60" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="71">
-        <v>0</v>
-      </c>
-      <c r="E60" s="71">
+      <c r="B60" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="51">
+        <v>0</v>
+      </c>
+      <c r="E60" s="51">
         <v>0</v>
       </c>
       <c r="F60" s="51">
@@ -7790,12 +7853,27 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="B61" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="71">
+        <v>0</v>
+      </c>
+      <c r="E61" s="71">
+        <v>0</v>
+      </c>
+      <c r="F61" s="51">
+        <v>0</v>
+      </c>
+      <c r="G61" s="51">
+        <v>0</v>
+      </c>
+      <c r="H61" s="51">
+        <v>0</v>
+      </c>
       <c r="I61" s="40"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
@@ -7805,7 +7883,6 @@
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54"/>
-      <c r="B62" s="39"/>
       <c r="C62" s="40"/>
       <c r="D62" s="55"/>
       <c r="E62" s="57"/>
@@ -7887,7 +7964,7 @@
       <c r="A67" s="54"/>
       <c r="B67" s="39"/>
       <c r="C67" s="40"/>
-      <c r="D67" s="51"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="57"/>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
@@ -8380,7 +8457,7 @@
       <c r="N97" s="40"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="56"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="39"/>
       <c r="C98" s="40"/>
       <c r="D98" s="51"/>
@@ -8395,6 +8472,22 @@
       <c r="M98" s="40"/>
       <c r="N98" s="40"/>
     </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="56"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
